--- a/.gitbook/assets/CERRIX-INCIDENT-PERMISSION-MATRIX-17-09-2025.xlsx
+++ b/.gitbook/assets/CERRIX-INCIDENT-PERMISSION-MATRIX-17-09-2025.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cerrixbv.sharepoint.com/sites/Products/Gedeelde documenten/CERRIX/Rights and Permission matrices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joachimjonkers/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="8_{C66C0517-567B-5B49-A86A-EE691D6FC167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679EB2D4-29F5-4F77-A3CD-2B69E025B8FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4ECEE-3140-1F44-B5F3-E0BFC88C6BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{ED104B26-53D6-4FA9-A664-54FDE0625235}"/>
+    <workbookView xWindow="-7120" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{ED104B26-53D6-4FA9-A664-54FDE0625235}"/>
   </bookViews>
   <sheets>
-    <sheet name="Title page" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="7" r:id="rId2"/>
-    <sheet name="Roles" sheetId="5" r:id="rId3"/>
-    <sheet name="Scopes" sheetId="3" r:id="rId4"/>
-    <sheet name="Matrix" sheetId="2" r:id="rId5"/>
+    <sheet name="Matrix" sheetId="2" r:id="rId1"/>
+    <sheet name="Roles" sheetId="5" r:id="rId2"/>
+    <sheet name="Scopes" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,19 +39,9 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
@@ -65,73 +53,14 @@
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
-      <rc t="2" v="0"/>
+      <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
-  <si>
-    <t>CERRIX Incidents - Permission Matrix</t>
-  </si>
-  <si>
-    <t>Subject:</t>
-  </si>
-  <si>
-    <t>Mapped out permission matrix for the incidents module</t>
-  </si>
-  <si>
-    <t>Author(s):</t>
-  </si>
-  <si>
-    <t>Lazarina Sirakov, Oğuzhan Arslan</t>
-  </si>
-  <si>
-    <t>Current version:</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>Distribution status:</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Audience:</t>
-  </si>
-  <si>
-    <t>CERRIX Internal</t>
-  </si>
-  <si>
-    <t>1. Define the module roles in the Roles worksheet with descriptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - The Matrix will automatically copy these roles over as column headers</t>
-  </si>
-  <si>
-    <t>2. Take a look at the default scopes and make sure these are sufficient for the module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - Assigned should always be a specified scope e.g., "Assigned &lt;reporter&gt;". Multiple assigned scopes can exist with distinct specifications. A standalone "Assigned" scope is discouraged to be used since it causes ambiguity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - The scope options are automatically configured as data validation values for the Matrix cells, so it should be easier to fill out the matrix</t>
-  </si>
-  <si>
-    <t>3. If you add more scopes, make sure the Matrix worksheet has the correct conditional formatting applied for the data value to keep it consistent with other conditional formats</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="74">
   <si>
     <t>Roles</t>
   </si>
@@ -359,28 +288,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat SemiBold"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Montserrat SemiBold"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Montserrat Medium"/>
     </font>
     <font>
       <sz val="14"/>
@@ -457,27 +371,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -565,63 +464,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="150"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -675,125 +562,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>244967</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>20601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>526984</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340D88DC-9461-5D1C-7655-91AD8D5CD91E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3178667" y="168768"/>
-          <a:ext cx="282017" cy="415432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,1016 +880,700 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C67D82D-E4B3-4DF4-8B96-93913CCD563F}">
-  <dimension ref="B1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="30.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="15" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="11.85" customHeight="1"/>
-    <row r="2" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B2" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="45.95" customHeight="1"/>
-    <row r="4" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45939</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="30.95" customHeight="1">
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E6C9C4-13C9-814B-A609-C6D7B209DF65}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="50.85546875" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="254.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="50.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="24.95" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="24.95" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="24.95" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="24.95" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="24.95" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF5C89D-F365-BF46-8EE2-323D3E5E0E4F}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="50.85546875" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="50.85546875" style="11"/>
-    <col min="2" max="2" width="176.42578125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="50.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D1430-5407-994B-BB74-829B9AE53B9C}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="50.85546875" defaultRowHeight="24.95" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="31" style="11" customWidth="1"/>
-    <col min="2" max="2" width="176.42578125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="50.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24.95" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFA7919-CA4A-47C1-89C3-797823552FE3}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:G5"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.85546875" defaultRowHeight="50.1" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="15.85546875" style="13"/>
+    <col min="1" max="1" width="5.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="15.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="18" customFormat="1" ht="192.95" customHeight="1">
-      <c r="B1" s="19"/>
-      <c r="C1" s="18" t="str" cm="1">
+    <row r="1" spans="1:26" s="12" customFormat="1" ht="193" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="str" cm="1">
         <f t="array" ref="C1">IF(INDEX(Roles!$A:$A, COLUMN(A1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(A1)+1), "")</f>
         <v>Event Unrestricted Administrator</v>
       </c>
-      <c r="D1" s="18" t="str" cm="1">
+      <c r="D1" s="12" t="str" cm="1">
         <f t="array" ref="D1">IF(INDEX(Roles!$A:$A, COLUMN(B1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(B1)+1), "")</f>
         <v>Event Restricted Administrator</v>
       </c>
-      <c r="E1" s="18" t="str" cm="1">
+      <c r="E1" s="12" t="str" cm="1">
         <f t="array" ref="E1">IF(INDEX(Roles!$A:$A, COLUMN(C1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(C1)+1), "")</f>
         <v>Event Assessor</v>
       </c>
-      <c r="F1" s="18" t="str" cm="1">
+      <c r="F1" s="12" t="str" cm="1">
         <f t="array" ref="F1">IF(INDEX(Roles!$A:$A, COLUMN(D1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(D1)+1), "")</f>
         <v>Event Responsible</v>
       </c>
-      <c r="G1" s="18" t="str" cm="1">
+      <c r="G1" s="12" t="str" cm="1">
         <f t="array" ref="G1">IF(INDEX(Roles!$A:$A, COLUMN(E1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(E1)+1), "")</f>
         <v>Event Reporter</v>
       </c>
-      <c r="H1" s="18" t="str" cm="1">
+      <c r="H1" s="12" t="str" cm="1">
         <f t="array" ref="H1">IF(INDEX(Roles!$A:$A, COLUMN(F1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(F1)+1), "")</f>
         <v>Event Informed</v>
       </c>
-      <c r="I1" s="18" t="str" cm="1">
+      <c r="I1" s="12" t="str" cm="1">
         <f t="array" ref="I1">IF(INDEX(Roles!$A:$A, COLUMN(G1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(G1)+1), "")</f>
         <v>Event Unrestricted Viewer</v>
       </c>
-      <c r="J1" s="18" t="str" cm="1">
+      <c r="J1" s="12" t="str" cm="1">
         <f t="array" ref="J1">IF(INDEX(Roles!$A:$A, COLUMN(H1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(H1)+1), "")</f>
         <v>Event Restricted Viewer</v>
       </c>
-      <c r="K1" s="18" t="str" cm="1">
+      <c r="K1" s="12" t="str" cm="1">
         <f t="array" ref="K1">IF(INDEX(Roles!$A:$A, COLUMN(I1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(I1)+1), "")</f>
         <v/>
       </c>
-      <c r="L1" s="18" t="str" cm="1">
+      <c r="L1" s="12" t="str" cm="1">
         <f t="array" ref="L1">IF(INDEX(Roles!$A:$A, COLUMN(J1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(J1)+1), "")</f>
         <v/>
       </c>
-      <c r="M1" s="18" t="str" cm="1">
+      <c r="M1" s="12" t="str" cm="1">
         <f t="array" ref="M1">IF(INDEX(Roles!$A:$A, COLUMN(K1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(K1)+1), "")</f>
         <v/>
       </c>
-      <c r="N1" s="18" t="str" cm="1">
+      <c r="N1" s="12" t="str" cm="1">
         <f t="array" ref="N1">IF(INDEX(Roles!$A:$A, COLUMN(L1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(L1)+1), "")</f>
         <v/>
       </c>
-      <c r="O1" s="18" t="str" cm="1">
+      <c r="O1" s="12" t="str" cm="1">
         <f t="array" ref="O1">IF(INDEX(Roles!$A:$A, COLUMN(M1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(M1)+1), "")</f>
         <v/>
       </c>
-      <c r="P1" s="18" t="str" cm="1">
+      <c r="P1" s="12" t="str" cm="1">
         <f t="array" ref="P1">IF(INDEX(Roles!$A:$A, COLUMN(N1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(N1)+1), "")</f>
         <v/>
       </c>
-      <c r="Q1" s="18" t="str" cm="1">
+      <c r="Q1" s="12" t="str" cm="1">
         <f t="array" ref="Q1">IF(INDEX(Roles!$A:$A, COLUMN(O1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(O1)+1), "")</f>
         <v/>
       </c>
-      <c r="R1" s="18" t="str" cm="1">
+      <c r="R1" s="12" t="str" cm="1">
         <f t="array" ref="R1">IF(INDEX(Roles!$A:$A, COLUMN(P1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(P1)+1), "")</f>
         <v/>
       </c>
-      <c r="S1" s="18" t="str" cm="1">
+      <c r="S1" s="12" t="str" cm="1">
         <f t="array" ref="S1">IF(INDEX(Roles!$A:$A, COLUMN(Q1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(Q1)+1), "")</f>
         <v/>
       </c>
-      <c r="T1" s="18" t="str" cm="1">
+      <c r="T1" s="12" t="str" cm="1">
         <f t="array" ref="T1">IF(INDEX(Roles!$A:$A, COLUMN(R1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(R1)+1), "")</f>
         <v/>
       </c>
-      <c r="U1" s="18" t="str" cm="1">
+      <c r="U1" s="12" t="str" cm="1">
         <f t="array" ref="U1">IF(INDEX(Roles!$A:$A, COLUMN(S1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(S1)+1), "")</f>
         <v/>
       </c>
-      <c r="V1" s="18" t="str" cm="1">
+      <c r="V1" s="12" t="str" cm="1">
         <f t="array" ref="V1">IF(INDEX(Roles!$A:$A, COLUMN(T1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(T1)+1), "")</f>
         <v/>
       </c>
-      <c r="W1" s="18" t="str" cm="1">
+      <c r="W1" s="12" t="str" cm="1">
         <f t="array" ref="W1">IF(INDEX(Roles!$A:$A, COLUMN(U1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(U1)+1), "")</f>
         <v/>
       </c>
-      <c r="X1" s="18" t="str" cm="1">
+      <c r="X1" s="12" t="str" cm="1">
         <f t="array" ref="X1">IF(INDEX(Roles!$A:$A, COLUMN(V1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(V1)+1), "")</f>
         <v/>
       </c>
-      <c r="Y1" s="18" t="str" cm="1">
+      <c r="Y1" s="12" t="str" cm="1">
         <f t="array" ref="Y1">IF(INDEX(Roles!$A:$A, COLUMN(W1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(W1)+1), "")</f>
         <v/>
       </c>
-      <c r="Z1" s="18" t="str" cm="1">
+      <c r="Z1" s="12" t="str" cm="1">
         <f t="array" ref="Z1">IF(INDEX(Roles!$A:$A, COLUMN(X1)+1)&lt;&gt;"", INDEX(Roles!$A:$A, COLUMN(X1)+1), "")</f>
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="50.1" customHeight="1">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="B21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24" t="s">
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A6" s="22"/>
-      <c r="B6" s="12" t="s">
+      <c r="C23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="12" t="s">
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="12" t="s">
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="12" t="s">
+      <c r="B27" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="12" t="s">
+      <c r="C27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="12" t="s">
+      <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="12" t="s">
+      <c r="I29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="12" t="s">
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="12" t="s">
+      <c r="C31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="50.1" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="C32" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="12" t="s">
+      <c r="C34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="12" t="s">
+      <c r="C35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="12" t="s">
+      <c r="C36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A21" s="20" t="s">
+      <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="12" t="s">
+      <c r="C39" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="12" t="s">
+      <c r="B41" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="12" t="s">
+      <c r="C41" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A27" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A41" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>37</v>
+      <c r="C42" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +1612,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF5C89D-F365-BF46-8EE2-323D3E5E0E4F}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="50.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.83203125" style="5"/>
+    <col min="2" max="2" width="176.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="50.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65D1430-5407-994B-BB74-829B9AE53B9C}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="50.83203125" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" style="5" customWidth="1"/>
+    <col min="2" max="2" width="176.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="50.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0510e342-abcd-44cc-8a78-a8adede78fe4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67d81f41-6d13-47de-bc4b-2368612ef3c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010083AF504336F90A4087D629514267C484" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0622d166a2ae6cebeb791312c265bfd0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67d81f41-6d13-47de-bc4b-2368612ef3c9" xmlns:ns3="0510e342-abcd-44cc-8a78-a8adede78fe4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aaed2c1d62bbe00adfcb9bfa29738cb4" ns2:_="" ns3:_="">
     <xsd:import namespace="67d81f41-6d13-47de-bc4b-2368612ef3c9"/>
@@ -2415,34 +2067,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0510e342-abcd-44cc-8a78-a8adede78fe4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="67d81f41-6d13-47de-bc4b-2368612ef3c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56AD7530-796E-402D-AE8E-CDD8AEA26354}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62FFCBA0-0525-4061-9909-0240D37FCC55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0510e342-abcd-44cc-8a78-a8adede78fe4"/>
+    <ds:schemaRef ds:uri="67d81f41-6d13-47de-bc4b-2368612ef3c9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C159A87-C7D9-4129-B493-C665237B938E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C159A87-C7D9-4129-B493-C665237B938E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62FFCBA0-0525-4061-9909-0240D37FCC55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56AD7530-796E-402D-AE8E-CDD8AEA26354}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67d81f41-6d13-47de-bc4b-2368612ef3c9"/>
+    <ds:schemaRef ds:uri="0510e342-abcd-44cc-8a78-a8adede78fe4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>